--- a/data/Map133.xlsx
+++ b/data/Map133.xlsx
@@ -644,7 +644,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A71"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,357 +652,363 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>70</v>
       </c>

--- a/data/Map133.xlsx
+++ b/data/Map133.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>自分鉄格子</t>
   </si>
   <si>
     <t>開いてた・・・</t>
+  </si>
+  <si>
+    <t>It opened...</t>
   </si>
   <si>
     <t>ロメアル鉄格子</t>
@@ -37,10 +40,21 @@
 どうやって外に・・・鉄格子は！？</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;Ehh!?
+Alsy!?
+That was an iron cell...how did you get out!?</t>
+  </si>
+  <si>
     <t>開いてた</t>
   </si>
   <si>
+    <t>It opened.</t>
+  </si>
+  <si>
     <t>擦ったら摩擦で溶けた</t>
+  </si>
+  <si>
+    <t>I rubbed it really hard and it melted.</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;嘘！
@@ -48,21 +62,41 @@
 ラッキー・・・！</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;You're joking!
+No way...they forgot to lock it!?
+What a stroke of luck...!</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;いや、待って。怪しい・・・
 罠かもしれない。気を付けてあにき。
 あいつら、何か企んでるのかも。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;No, wait. That's too suspicious...
+It might be a trap. You should be careful Alsy,
+they could be plotting something.</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;あれだけ搾られた癖に冗談言うなんて余裕あるね。
 さすがあにき。
 死んどけ。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;They've been draining you so much, and yet
+you can still crack a joke huh? That's my big brother!
+Still standing!</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;でもこんなに簡単に出られるなんてなんか怪しくない？
 気を付けて。
 罠かもしれないよ。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;But don't you think it's weird you could just get out?
+Be careful.
+It might be some kind of trap.</t>
+  </si>
+  <si>
     <t>MP_SET_MOVIE アルス立ち絵アニメ基本</t>
   </si>
   <si>
@@ -70,7 +104,14 @@
 どうやって出たんだ！？</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;Wha, you...!
+How did you get out!?</t>
+  </si>
+  <si>
     <t>鉄格子を引きちぎった</t>
+  </si>
+  <si>
+    <t>I broke the bars with my hands.</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;鍵を掛け忘れたのか・・・？
@@ -78,17 +119,35 @@
 これはチャンスだぞ！</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;Could they have forgotten to lock the cell...?
+T-This is it!
+This could be our big break!</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;いや待て。何か怪しいな・・・
 こんなに簡単に獲物を逃がすか？
 罠かもしれないぞ。気を付けろ。\n[1]。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;Wait. Something is off...
+Could escaping really be that easy?
+This could be a trap. Be careful, \n[1].</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;まさか俺の妹がゴリラだったなんてな。
 すまん、この鉄格子も頼む。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;I had no idea my littler sister was a gorilla!
+I hope you don't mind if I trouble you to do this cell too.</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;どうやら俺の鉄格子はお前のところより固いようだな。
 サビていたのか・・・？</t>
+  </si>
+  <si>
+    <t>\n&lt;Als&gt;Ah, it seems like the bars of my cell are a bit
+tougher. Were yours rusty...?</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;こんなに簡単に出られるのは逆に怪しいな。
@@ -96,12 +155,25 @@
 気を付けろ。\n[1]。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;Being able to get out so easily is suspicious indeed.
+It could be a trap.
+Be careful, \n[1].</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;鍵を掛けたかどうか不安な時って結局
 ほとんどの場合はちゃんと鍵掛けてるのよね。
 無意識にっていうか。</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;鍵を掛けたかどうか不安な時って結局
+ほとんどの場合はちゃんと鍵掛けてるのよね。
+無意識にっていうか。</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;あるあるー。</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;あるあるー。</t>
   </si>
   <si>
     <t>\n&lt;アルス&gt;まずい！あいつらだ！
@@ -109,12 +181,26 @@
 どこか隠れられる場所はないか！？</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;まずい！あいつらだ！
+戻って来た！
+どこか隠れられる場所はないか！？</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;あいつらの声・・・！！
 戻って来た！！
 どうしようあにき！隠れられる場所とか・・・！</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;あいつらの声・・・！！
+戻って来た！！
+どうしようあにき！隠れられる場所とか・・・！</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;早く隠れろ！
+どこか・・・なんかあるだろ！</t>
+  </si>
+  <si>
+    <t>\n&lt;Als&gt;早く隠れろ！
 どこか・・・なんかあるだろ！</t>
   </si>
   <si>
@@ -123,21 +209,41 @@
 急いで！</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;見つかる前に隠れて！
+早く！
+急いで！</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;・・・
 聞こえてたか？
 なんか妙なことになったな。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;・・・
+聞こえてたか？
+なんか妙なことになったな。</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;だけど、これはチャンスでもある。
 あいつらが調子に乗って油断しているうちに
 脱出経路を探すんだ。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;だけど、これはチャンスでもある。
+あいつらが調子に乗って油断しているうちに
+脱出経路を探すんだ。</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;\n[1]。もし逃げられるようなら
 俺の事は気にせず逃げるんだぞ。
 分かったな？</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;\n[1]。もし逃げられるようなら
+俺の事は気にせず逃げるんだぞ。
+分かったな？</t>
+  </si>
+  <si>
     <t>置いてはいけない</t>
   </si>
   <si>
@@ -145,6 +251,10 @@
   </si>
   <si>
     <t>\n&lt;アルス&gt;俺のことは大丈夫だ。
+お前さえ無事なら・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;Als&gt;俺のことは大丈夫だ。
 お前さえ無事なら・・・</t>
   </si>
   <si>
@@ -153,12 +263,25 @@
 それまでの間くらい、耐えてみせるさ。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;少し距離はあるが、無事に逃げ延びたら
+ギルドに行って助けを呼んできてくれ。
+それまでの間くらい、耐えてみせるさ。</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;よし。
 気を付けて行けよ。\n[1]。
 あまり無茶はするな。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;よし。
+気を付けて行けよ。\n[1]。
+あまり無茶はするな。</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;ぐぅ～・・・・（腹の鳴る音）</t>
+  </si>
+  <si>
+    <t>\n&lt;Als&gt;ぐぅ～・・・・（腹の鳴る音）</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;あにき、お腹鳴ってるよ。
@@ -166,6 +289,10 @@
   </si>
   <si>
     <t>\n&lt;アルス&gt;う・・・悪い。
+余裕があったらでいいぞ。</t>
+  </si>
+  <si>
+    <t>\n&lt;Als&gt;う・・・悪い。
 余裕があったらでいいぞ。</t>
   </si>
   <si>
@@ -174,12 +301,25 @@
 まぁ、ある意味チャンスだけど。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;なんか変なことになったね。
+脱出ゲーム・・・
+まぁ、ある意味チャンスだけど。</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;あの三馬鹿が調子に乗っているうちに
 なんとかここを抜け出す方法を探そう！
 あにき、頑張れ！</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;あの三馬鹿が調子に乗っているうちに
+なんとかここを抜け出す方法を探そう！
+あにき、頑張れ！</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;ぐぅ～・・・（お腹の鳴る音）</t>
+  </si>
+  <si>
+    <t>\n&lt;Romelia&gt;ぐぅ～・・・（お腹の鳴る音）</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;あ、ごめん。
@@ -187,6 +327,11 @@
 お、お腹空きすぎて・・・</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;あ、ごめん。
+何か食べるものあったらお願いできる？
+お、お腹空きすぎて・・・</t>
+  </si>
+  <si>
     <t>\C[3]※SAN値（正気度）について
 \C[0]捕まって搾り取られたりすると正気を失って行きます。
 SAN値によって発生するイベントが変わります。</t>
@@ -205,6 +350,11 @@
 こじ開けるんだけどなぁ。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;うーん。
+俺がゴリラだったらこんな檻ぐらい
+こじ開けるんだけどなぁ。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;動物園のゴリラは檻に入れられてるから。</t>
   </si>
   <si>
@@ -213,11 +363,21 @@
 脱出経路を探すんだ。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;見つからないように気を付けて行け。
+おそらく正面玄関は鍵がかけられて使えないだろう。
+脱出経路を探すんだ。</t>
+  </si>
+  <si>
     <t>\n&lt;アルス&gt;いいか\n[1]。
 アルストロメリアの花言葉は『未来への憧れ』だ。
 俺たちは必ず生きてここを出る。そのヴィジョンを持て。</t>
   </si>
   <si>
+    <t>\n&lt;Als&gt;いいか\n[1]。
+AlsトRomeliaの花言葉は『未来への憧れ』だ。
+俺たちは必ず生きてここを出る。そのヴィジョンを持て。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;うん。ありがとあにき。
 でもそれ恥ずかしいから外で言わないでね。</t>
   </si>
@@ -227,25 +387,48 @@
 なるべく見つからないように、こっそりね。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;あにき。頼りにしてる。
+頑張って。
+なるべく見つからないように、こっそりね。</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;アルストロメリアの花言葉は『未来への憧れ』。
 私たちならきっと、上手く行くよ。
 あにきがいてくれて良かった。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;AlsトRomeliaの花言葉は『未来への憧れ』。
+私たちならきっと、上手く行くよ。
+あにきがいてくれて良かった。</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;ふたりでひとつみたいな名前、
 今まで大分恥ずかしい思いしたけどね。
 でも嫌じゃなかったよ。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;ふたりでひとつみたいな名前、
+今まで大分恥ずかしい思いしたけどね。
+でも嫌じゃなかったよ。</t>
+  </si>
+  <si>
     <t>\n&lt;ロメリア&gt;しょうがないことかもしれないけど、
 あんまり淫魔相手にえっちなこと考えないでよ？
 魔物なんだからね。化け物だよ。</t>
   </si>
   <si>
+    <t>\n&lt;Romelia&gt;しょうがないことかもしれないけど、
+あんまり淫魔相手にえっちなこと考えないでよ？
+魔物なんだからね。化け物だよ。</t>
+  </si>
+  <si>
     <t>EV004</t>
   </si>
   <si>
     <t>鉄格子は硬く閉ざされている・・・</t>
+  </si>
+  <si>
+    <t>The iron bars have been securely fastened...</t>
   </si>
   <si>
     <t>EV005</t>
@@ -255,6 +438,10 @@
 あいつらにやられたのだろうか・・・</t>
   </si>
   <si>
+    <t>A corpse can be seen inside...
+Did those guys really...?</t>
+  </si>
+  <si>
     <t>ロメ/アル</t>
   </si>
   <si>
@@ -265,7 +452,13 @@
     <t>気にするな</t>
   </si>
   <si>
+    <t>I was worried.</t>
+  </si>
+  <si>
     <t>お前のせいだぞ</t>
+  </si>
+  <si>
+    <t>This is your fault.</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;だって三人組だって思わなかったんだもん。
@@ -644,7 +837,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,365 +845,524 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="D53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>97</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>101</v>
+      </c>
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>103</v>
+      </c>
+      <c r="D61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map133.xlsx
+++ b/data/Map133.xlsx
@@ -40,7 +40,7 @@
 どうやって外に・・・鉄格子は！？</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;Ehh!?
+    <t>\n&lt;Meria&gt;Ehh!?
 Alsy!?
 That was an iron cell...how did you get out!?</t>
   </si>
@@ -62,7 +62,7 @@
 ラッキー・・・！</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;You're joking!
+    <t>\n&lt;Meria&gt;You're joking!
 No way...they forgot to lock it!?
 What a stroke of luck...!</t>
   </si>
@@ -72,7 +72,7 @@
 あいつら、何か企んでるのかも。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;No, wait. That's too suspicious...
+    <t>\n&lt;Meria&gt;No, wait. That's too suspicious...
 It might be a trap. You should be careful Alsy,
 they could be plotting something.</t>
   </si>
@@ -82,7 +82,7 @@
 死んどけ。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;They've been draining you so much, and yet
+    <t>\n&lt;Meria&gt;They've been draining you so much, and yet
 you can still crack a joke huh? That's my big brother!
 Still standing!</t>
   </si>
@@ -92,7 +92,7 @@
 罠かもしれないよ。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;But don't you think it's weird you could just get out?
+    <t>\n&lt;Meria&gt;But don't you think it's weird you could just get out?
 Be careful.
 It might be some kind of trap.</t>
   </si>
@@ -104,7 +104,7 @@
 どうやって出たんだ！？</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Wha, you...!
+    <t>\n&lt;Alsto&gt;Wha, you...!
 How did you get out!?</t>
   </si>
   <si>
@@ -119,7 +119,7 @@
 これはチャンスだぞ！</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Could they have forgotten to lock the cell...?
+    <t>\n&lt;Alsto&gt;Could they have forgotten to lock the cell...?
 T-This is it!
 This could be our big break!</t>
   </si>
@@ -129,7 +129,7 @@
 罠かもしれないぞ。気を付けろ。\n[1]。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Wait. Something is off...
+    <t>\n&lt;Alsto&gt;Wait. Something is off...
 Could escaping really be that easy?
 This could be a trap. Be careful, \n[1].</t>
   </si>
@@ -138,7 +138,7 @@
 すまん、この鉄格子も頼む。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;I had no idea my littler sister was a gorilla!
+    <t>\n&lt;Alsto&gt;I had no idea my littler sister was a gorilla!
 I hope you don't mind if I trouble you to do this cell too.</t>
   </si>
   <si>
@@ -146,7 +146,7 @@
 サビていたのか・・・？</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Ah, it seems like the bars of my cell are a bit
+    <t>\n&lt;Alsto&gt;Ah, it seems like the bars of my cell are a bit
 tougher. Were yours rusty...?</t>
   </si>
   <si>
@@ -155,7 +155,7 @@
 気を付けろ。\n[1]。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;Being able to get out so easily is suspicious indeed.
+    <t>\n&lt;Alsto&gt;Being able to get out so easily is suspicious indeed.
 It could be a trap.
 Be careful, \n[1].</t>
   </si>
@@ -181,7 +181,7 @@
 どこか隠れられる場所はないか！？</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;まずい！あいつらだ！
+    <t>\n&lt;Alsto&gt;まずい！あいつらだ！
 戻って来た！
 どこか隠れられる場所はないか！？</t>
   </si>
@@ -191,7 +191,7 @@
 どうしようあにき！隠れられる場所とか・・・！</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;あいつらの声・・・！！
+    <t>\n&lt;Meria&gt;あいつらの声・・・！！
 戻って来た！！
 どうしようあにき！隠れられる場所とか・・・！</t>
   </si>
@@ -200,7 +200,7 @@
 どこか・・・なんかあるだろ！</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;早く隠れろ！
+    <t>\n&lt;Alsto&gt;早く隠れろ！
 どこか・・・なんかあるだろ！</t>
   </si>
   <si>
@@ -209,7 +209,7 @@
 急いで！</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;見つかる前に隠れて！
+    <t>\n&lt;Meria&gt;見つかる前に隠れて！
 早く！
 急いで！</t>
   </si>
@@ -219,7 +219,7 @@
 なんか妙なことになったな。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;・・・
+    <t>\n&lt;Alsto&gt;・・・
 聞こえてたか？
 なんか妙なことになったな。</t>
   </si>
@@ -229,7 +229,7 @@
 脱出経路を探すんだ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;だけど、これはチャンスでもある。
+    <t>\n&lt;Alsto&gt;だけど、これはチャンスでもある。
 あいつらが調子に乗って油断しているうちに
 脱出経路を探すんだ。</t>
   </si>
@@ -239,7 +239,7 @@
 分かったな？</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;\n[1]。もし逃げられるようなら
+    <t>\n&lt;Alsto&gt;\n[1]。もし逃げられるようなら
 俺の事は気にせず逃げるんだぞ。
 分かったな？</t>
   </si>
@@ -254,7 +254,7 @@
 お前さえ無事なら・・・</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;俺のことは大丈夫だ。
+    <t>\n&lt;Alsto&gt;俺のことは大丈夫だ。
 お前さえ無事なら・・・</t>
   </si>
   <si>
@@ -263,7 +263,7 @@
 それまでの間くらい、耐えてみせるさ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;少し距離はあるが、無事に逃げ延びたら
+    <t>\n&lt;Alsto&gt;少し距離はあるが、無事に逃げ延びたら
 ギルドに行って助けを呼んできてくれ。
 それまでの間くらい、耐えてみせるさ。</t>
   </si>
@@ -273,7 +273,7 @@
 あまり無茶はするな。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;よし。
+    <t>\n&lt;Alsto&gt;よし。
 気を付けて行けよ。\n[1]。
 あまり無茶はするな。</t>
   </si>
@@ -281,7 +281,7 @@
     <t>\n&lt;アルス&gt;ぐぅ～・・・・（腹の鳴る音）</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;ぐぅ～・・・・（腹の鳴る音）</t>
+    <t>\n&lt;Alsto&gt;ぐぅ～・・・・（腹の鳴る音）</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;あにき、お腹鳴ってるよ。
@@ -292,7 +292,7 @@
 余裕があったらでいいぞ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;う・・・悪い。
+    <t>\n&lt;Alsto&gt;う・・・悪い。
 余裕があったらでいいぞ。</t>
   </si>
   <si>
@@ -301,7 +301,7 @@
 まぁ、ある意味チャンスだけど。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;なんか変なことになったね。
+    <t>\n&lt;Meria&gt;なんか変なことになったね。
 脱出ゲーム・・・
 まぁ、ある意味チャンスだけど。</t>
   </si>
@@ -311,7 +311,7 @@
 あにき、頑張れ！</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;あの三馬鹿が調子に乗っているうちに
+    <t>\n&lt;Meria&gt;あの三馬鹿が調子に乗っているうちに
 なんとかここを抜け出す方法を探そう！
 あにき、頑張れ！</t>
   </si>
@@ -319,7 +319,7 @@
     <t>\n&lt;ロメリア&gt;ぐぅ～・・・（お腹の鳴る音）</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;ぐぅ～・・・（お腹の鳴る音）</t>
+    <t>\n&lt;Meria&gt;ぐぅ～・・・（お腹の鳴る音）</t>
   </si>
   <si>
     <t>\n&lt;ロメリア&gt;あ、ごめん。
@@ -327,7 +327,7 @@
 お、お腹空きすぎて・・・</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;あ、ごめん。
+    <t>\n&lt;Meria&gt;あ、ごめん。
 何か食べるものあったらお願いできる？
 お、お腹空きすぎて・・・</t>
   </si>
@@ -350,7 +350,7 @@
 こじ開けるんだけどなぁ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;うーん。
+    <t>\n&lt;Alsto&gt;うーん。
 俺がゴリラだったらこんな檻ぐらい
 こじ開けるんだけどなぁ。</t>
   </si>
@@ -363,7 +363,7 @@
 脱出経路を探すんだ。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;見つからないように気を付けて行け。
+    <t>\n&lt;Alsto&gt;見つからないように気を付けて行け。
 おそらく正面玄関は鍵がかけられて使えないだろう。
 脱出経路を探すんだ。</t>
   </si>
@@ -373,8 +373,8 @@
 俺たちは必ず生きてここを出る。そのヴィジョンを持て。</t>
   </si>
   <si>
-    <t>\n&lt;Als&gt;いいか\n[1]。
-AlsトRomeliaの花言葉は『未来への憧れ』だ。
+    <t>\n&lt;Alsto&gt;いいか\n[1]。
+AlstoトMeriaの花言葉は『未来への憧れ』だ。
 俺たちは必ず生きてここを出る。そのヴィジョンを持て。</t>
   </si>
   <si>
@@ -387,7 +387,7 @@
 なるべく見つからないように、こっそりね。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;あにき。頼りにしてる。
+    <t>\n&lt;Meria&gt;あにき。頼りにしてる。
 頑張って。
 なるべく見つからないように、こっそりね。</t>
   </si>
@@ -397,7 +397,7 @@
 あにきがいてくれて良かった。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;AlsトRomeliaの花言葉は『未来への憧れ』。
+    <t>\n&lt;Meria&gt;AlstoトMeriaの花言葉は『未来への憧れ』。
 私たちならきっと、上手く行くよ。
 あにきがいてくれて良かった。</t>
   </si>
@@ -407,7 +407,7 @@
 でも嫌じゃなかったよ。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;ふたりでひとつみたいな名前、
+    <t>\n&lt;Meria&gt;ふたりでひとつみたいな名前、
 今まで大分恥ずかしい思いしたけどね。
 でも嫌じゃなかったよ。</t>
   </si>
@@ -417,7 +417,7 @@
 魔物なんだからね。化け物だよ。</t>
   </si>
   <si>
-    <t>\n&lt;Romelia&gt;しょうがないことかもしれないけど、
+    <t>\n&lt;Meria&gt;しょうがないことかもしれないけど、
 あんまり淫魔相手にえっちなこと考えないでよ？
 魔物なんだからね。化け物だよ。</t>
   </si>

--- a/data/Map133.xlsx
+++ b/data/Map133.xlsx
@@ -837,7 +837,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,523 +845,571 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="D33" t="s">
+      <c r="B33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="D34" t="s">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>64</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>66</v>
       </c>
-      <c r="D38" t="s">
+      <c r="B38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>68</v>
       </c>
-      <c r="D39" t="s">
+      <c r="B39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>70</v>
       </c>
-      <c r="D40" t="s">
+      <c r="B40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
-      <c r="D41" t="s">
+      <c r="B41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>74</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>77</v>
       </c>
-      <c r="D45" t="s">
+      <c r="B45" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>79</v>
       </c>
-      <c r="D46" t="s">
+      <c r="B46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>80</v>
       </c>
-      <c r="D47" t="s">
+      <c r="B47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>82</v>
       </c>
-      <c r="D48" t="s">
+      <c r="B48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>84</v>
       </c>
-      <c r="D49" t="s">
+      <c r="B49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>85</v>
       </c>
-      <c r="D50" t="s">
+      <c r="B50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>87</v>
       </c>
-      <c r="D51" t="s">
+      <c r="B51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>89</v>
       </c>
-      <c r="D52" t="s">
+      <c r="B52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>91</v>
       </c>
-      <c r="D53" t="s">
+      <c r="B53" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>93</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s">
         <v>93</v>
       </c>
-      <c r="D54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>94</v>
       </c>
-      <c r="D55" t="s">
+      <c r="B55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>96</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s">
         <v>96</v>
       </c>
-      <c r="D56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>97</v>
       </c>
-      <c r="D57" t="s">
+      <c r="B57" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>101</v>
       </c>
-      <c r="D60" t="s">
+      <c r="B60" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>103</v>
       </c>
-      <c r="D61" t="s">
+      <c r="B61" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" t="s">
         <v>114</v>
       </c>
     </row>
